--- a/data/BordenTool_Data_Template.xlsx
+++ b/data/BordenTool_Data_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\BordenTool_Hannah\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_20210802\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFCDB65-2E0E-4AA6-8A59-58B4B456E043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA9DBE-8822-49F0-A25C-A4AA001DAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{B6BEC480-661E-42A6-BA37-CCE8FD228D15}"/>
+    <workbookView xWindow="31455" yWindow="795" windowWidth="21600" windowHeight="15180" activeTab="2" xr2:uid="{B6BEC480-661E-42A6-BA37-CCE8FD228D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Soil_Type</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>1,2-DCA</t>
+  </si>
+  <si>
+    <t>it was 0.47 before</t>
   </si>
 </sst>
 </file>
@@ -769,8 +772,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="C3">
         <v>1.8731073647818483E-5</v>
@@ -826,6 +829,9 @@
       <c r="D3">
         <f>C3*100/24/60/60</f>
         <v>2.1679483388678803E-8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +849,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/data/BordenTool_Data_Template.xlsx
+++ b/data/BordenTool_Data_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_20210802\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA9DBE-8822-49F0-A25C-A4AA001DAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D2D26-5970-4B69-884F-8554F6EFB044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31455" yWindow="795" windowWidth="21600" windowHeight="15180" activeTab="2" xr2:uid="{B6BEC480-661E-42A6-BA37-CCE8FD228D15}"/>
+    <workbookView xWindow="6930" yWindow="1155" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{B6BEC480-661E-42A6-BA37-CCE8FD228D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Soil_Type</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>it was 0.47 before</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
   </si>
 </sst>
 </file>
@@ -772,7 +781,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -951,10 +960,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A1D421-3148-40B5-A17D-535B369EA626}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +971,7 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1085,57 +1094,57 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>-0.43</v>
+        <v>0.46850999999999998</v>
       </c>
       <c r="D7">
-        <v>1.026</v>
+        <v>0.75329999999999997</v>
       </c>
       <c r="E7">
-        <v>3.9249999999999998</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>1.123</v>
+        <v>0.96030000000000004</v>
       </c>
       <c r="D8">
-        <v>1.2310000000000001</v>
+        <v>0.9133</v>
       </c>
       <c r="E8">
-        <v>0.68500000000000005</v>
+        <v>0.88336999999999999</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>-0.192</v>
+        <v>5.2109999999999997E-2</v>
       </c>
       <c r="D9">
-        <v>0.313</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="E9">
-        <v>0.248</v>
+        <v>7.2429999999999994E-2</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1144,17 +1153,17 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-1.514</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>-0.43</v>
+      </c>
+      <c r="D10">
+        <v>1.026</v>
+      </c>
+      <c r="E10">
+        <v>3.9249999999999998</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1163,45 +1172,75 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.53600000000000003</v>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>1.123</v>
+      </c>
+      <c r="D11">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.68500000000000005</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>-0.192</v>
+      </c>
+      <c r="D12">
+        <v>0.313</v>
+      </c>
+      <c r="E12">
+        <v>0.248</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-1.514</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.53600000000000003</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
@@ -1378,8 +1417,29 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1"/>
